--- a/Jumiakenya-DB.xlsx
+++ b/Jumiakenya-DB.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\techcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\wanja_tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F133BC-0DA4-4D5A-A07F-36C9373DA283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E12AD0C-966B-4B1A-9FA5-2E95BC62EF7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{FD0853E0-8FFF-4328-9EE6-690214ADDA62}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" firstSheet="2" activeTab="9" xr2:uid="{FD0853E0-8FFF-4328-9EE6-690214ADDA62}"/>
   </bookViews>
   <sheets>
-    <sheet name="products" sheetId="1" r:id="rId1"/>
-    <sheet name="categories" sheetId="2" r:id="rId2"/>
+    <sheet name="categories" sheetId="2" r:id="rId1"/>
+    <sheet name="subcategories" sheetId="8" r:id="rId2"/>
     <sheet name="vendorlist" sheetId="3" r:id="rId3"/>
-    <sheet name="customers" sheetId="4" r:id="rId4"/>
-    <sheet name="order details" sheetId="5" r:id="rId5"/>
-    <sheet name="stock" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="products" sheetId="1" r:id="rId4"/>
+    <sheet name="customers" sheetId="4" r:id="rId5"/>
+    <sheet name="cart" sheetId="12" r:id="rId6"/>
+    <sheet name="paytype" sheetId="7" r:id="rId7"/>
+    <sheet name="pay status" sheetId="10" r:id="rId8"/>
+    <sheet name="orders" sheetId="9" r:id="rId9"/>
+    <sheet name="deliveries" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
-  <si>
-    <t>c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -57,27 +57,9 @@
     <t>beauty</t>
   </si>
   <si>
-    <t>Ca005</t>
-  </si>
-  <si>
-    <t>sporting goods</t>
-  </si>
-  <si>
-    <t>utensils</t>
-  </si>
-  <si>
-    <t>Ca006</t>
-  </si>
-  <si>
     <t>ca003</t>
   </si>
   <si>
-    <t>ca004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gaming </t>
-  </si>
-  <si>
     <t xml:space="preserve">product id </t>
   </si>
   <si>
@@ -93,24 +75,6 @@
     <t>Prd1/23</t>
   </si>
   <si>
-    <t>prd2/23</t>
-  </si>
-  <si>
-    <t>prd3/23</t>
-  </si>
-  <si>
-    <t>prd4/23</t>
-  </si>
-  <si>
-    <t>prd5/23</t>
-  </si>
-  <si>
-    <t>smart tv</t>
-  </si>
-  <si>
-    <t>LEDtv</t>
-  </si>
-  <si>
     <t>company_ name</t>
   </si>
   <si>
@@ -129,27 +93,6 @@
     <t>Ev1/23</t>
   </si>
   <si>
-    <t>Ev2/23</t>
-  </si>
-  <si>
-    <t>Ev3/23</t>
-  </si>
-  <si>
-    <t>Ev4/23</t>
-  </si>
-  <si>
-    <t>Ev5/23</t>
-  </si>
-  <si>
-    <t>Ev6/23</t>
-  </si>
-  <si>
-    <t>Ev7/23</t>
-  </si>
-  <si>
-    <t>Ev8/23</t>
-  </si>
-  <si>
     <t>Oraimo</t>
   </si>
   <si>
@@ -165,22 +108,349 @@
     <t xml:space="preserve">Canon </t>
   </si>
   <si>
-    <t>Ev9/23</t>
-  </si>
-  <si>
     <t>Infinix</t>
   </si>
   <si>
     <t>iPhone</t>
   </si>
   <si>
-    <t>Mobile phones</t>
-  </si>
-  <si>
-    <t>radios</t>
-  </si>
-  <si>
-    <t>prd6/23</t>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>sub01</t>
+  </si>
+  <si>
+    <t>sub02</t>
+  </si>
+  <si>
+    <t>sub03</t>
+  </si>
+  <si>
+    <t>sub04</t>
+  </si>
+  <si>
+    <t>sub05</t>
+  </si>
+  <si>
+    <t>sub06</t>
+  </si>
+  <si>
+    <t>sub07</t>
+  </si>
+  <si>
+    <t>sub08</t>
+  </si>
+  <si>
+    <t>sub09</t>
+  </si>
+  <si>
+    <t>sub10</t>
+  </si>
+  <si>
+    <t>sub11</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>washing machines</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>womenclothes</t>
+  </si>
+  <si>
+    <t>men clothes</t>
+  </si>
+  <si>
+    <t>baby clothes</t>
+  </si>
+  <si>
+    <t>sub12</t>
+  </si>
+  <si>
+    <t>sub13</t>
+  </si>
+  <si>
+    <t>sub14</t>
+  </si>
+  <si>
+    <t>sub15</t>
+  </si>
+  <si>
+    <t>hair care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bodycare </t>
+  </si>
+  <si>
+    <t>nails</t>
+  </si>
+  <si>
+    <t>Ev1/24</t>
+  </si>
+  <si>
+    <t>Ev1/25</t>
+  </si>
+  <si>
+    <t>Ev1/26</t>
+  </si>
+  <si>
+    <t>Ev1/27</t>
+  </si>
+  <si>
+    <t>Ev1/28</t>
+  </si>
+  <si>
+    <t>Ev1/29</t>
+  </si>
+  <si>
+    <t>Ev1/30</t>
+  </si>
+  <si>
+    <t>Ev1/31</t>
+  </si>
+  <si>
+    <t>Ev1/32</t>
+  </si>
+  <si>
+    <t>Ev1/33</t>
+  </si>
+  <si>
+    <t>Ev1/34</t>
+  </si>
+  <si>
+    <t>Ev1/35</t>
+  </si>
+  <si>
+    <t>Ev1/36</t>
+  </si>
+  <si>
+    <t>Ev1/37</t>
+  </si>
+  <si>
+    <t>Ev1/38</t>
+  </si>
+  <si>
+    <t>carrefour</t>
+  </si>
+  <si>
+    <t>kids baby shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turkey wear </t>
+  </si>
+  <si>
+    <t>bestlady</t>
+  </si>
+  <si>
+    <t>luxury perfumes</t>
+  </si>
+  <si>
+    <t>perfumes</t>
+  </si>
+  <si>
+    <t>nail polish</t>
+  </si>
+  <si>
+    <t>sub_category_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>uv_polish</t>
+  </si>
+  <si>
+    <t>Prd1/20</t>
+  </si>
+  <si>
+    <t>Prd1/21</t>
+  </si>
+  <si>
+    <t>Prd1/22</t>
+  </si>
+  <si>
+    <t>Prd1/24</t>
+  </si>
+  <si>
+    <t>Prd1/25</t>
+  </si>
+  <si>
+    <t>vendorlist_id</t>
+  </si>
+  <si>
+    <t>55' OLED</t>
+  </si>
+  <si>
+    <t>32'smart</t>
+  </si>
+  <si>
+    <t>Ca003</t>
+  </si>
+  <si>
+    <t>double door 237 litres</t>
+  </si>
+  <si>
+    <t>10 kg twin tab with spinner</t>
+  </si>
+  <si>
+    <t>100ml Si passion</t>
+  </si>
+  <si>
+    <t>Tcb naturals 100gms</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>cust001</t>
+  </si>
+  <si>
+    <t>cust002</t>
+  </si>
+  <si>
+    <t>cust003</t>
+  </si>
+  <si>
+    <t>cust004</t>
+  </si>
+  <si>
+    <t>cust005</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id </t>
+  </si>
+  <si>
+    <t>nino</t>
+  </si>
+  <si>
+    <t>wanja</t>
+  </si>
+  <si>
+    <t>irene</t>
+  </si>
+  <si>
+    <t>kuria</t>
+  </si>
+  <si>
+    <t>imelda</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>kenyatta road</t>
+  </si>
+  <si>
+    <t>Membley</t>
+  </si>
+  <si>
+    <t>ruiru town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruaka </t>
+  </si>
+  <si>
+    <t>Or123</t>
+  </si>
+  <si>
+    <t>Or124</t>
+  </si>
+  <si>
+    <t>paytype_id</t>
+  </si>
+  <si>
+    <t>p01</t>
+  </si>
+  <si>
+    <t>MPESA</t>
+  </si>
+  <si>
+    <t>p02</t>
+  </si>
+  <si>
+    <t>p03</t>
+  </si>
+  <si>
+    <t>p04</t>
+  </si>
+  <si>
+    <t>VISA CARD</t>
+  </si>
+  <si>
+    <t>PAYPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>paytype</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>st00</t>
+  </si>
+  <si>
+    <t>st01</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>delivery_id</t>
+  </si>
+  <si>
+    <t>del012</t>
+  </si>
+  <si>
+    <t>del013</t>
+  </si>
+  <si>
+    <t>pay status _ID</t>
+  </si>
+  <si>
+    <t>pay status_id</t>
+  </si>
+  <si>
+    <t>cart_id</t>
+  </si>
+  <si>
+    <t>cart 001</t>
+  </si>
+  <si>
+    <t>cart 002</t>
+  </si>
+  <si>
+    <t>cart 005</t>
+  </si>
+  <si>
+    <t>Product_id</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -540,102 +810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB9FE5-1CE6-4C77-A802-91C7D709F003}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4223C-459B-4EA8-A48A-D2EAA5CF37C9}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,58 +825,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -706,12 +861,243 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AC6298-0454-4A75-8992-193B6044F497}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC531E2-7B8D-4FE6-AAC8-C637C76E14DA}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A37318A-8014-4971-BA91-5E549FA7A949}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,98 +1108,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -822,16 +1256,139 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2616004-A606-4E65-A58C-6A40E2AF7E0B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB9FE5-1CE6-4C77-A802-91C7D709F003}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -840,37 +1397,345 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37930D0E-1106-4750-9990-53CC779FB39A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2616004-A606-4E65-A58C-6A40E2AF7E0B}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6">
+        <v>3456</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7559AB-2642-4DA6-8977-7B5FA8D2ADA2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3673BADC-2993-4EF8-BC12-A7B06414C4CA}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18B75D9-AC52-406A-A80F-48D45DD53C2A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B466265-2240-4E8B-BDD5-15A39DD2B360}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1270A69D-393C-429B-B807-A2DC50AF2999}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>